--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Boston_Celtics__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Boston_Celtics__.xlsx
@@ -588,79 +588,79 @@
         <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="G2" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H2" t="n">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="I2" t="n">
-        <v>0.413</v>
+        <v>0.415</v>
       </c>
       <c r="J2" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="n">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="L2" t="n">
-        <v>0.335</v>
+        <v>0.333</v>
       </c>
       <c r="M2" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N2" t="n">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="O2" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="P2" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="Q2" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="R2" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S2" t="n">
-        <v>0.822</v>
+        <v>0.827</v>
       </c>
       <c r="T2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="V2" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="W2" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
+        <v>71</v>
+      </c>
+      <c r="AA2" t="n">
         <v>65</v>
       </c>
-      <c r="AA2" t="n">
-        <v>61</v>
-      </c>
       <c r="AB2" t="n">
-        <v>638</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>825</v>
+        <v>862</v>
       </c>
       <c r="G3" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="I3" t="n">
-        <v>0.396</v>
+        <v>0.398</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>0.298</v>
+        <v>0.292</v>
       </c>
       <c r="M3" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="N3" t="n">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="O3" t="n">
-        <v>0.488</v>
+        <v>0.496</v>
       </c>
       <c r="P3" t="n">
         <v>0.468</v>
       </c>
       <c r="Q3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R3" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="T3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U3" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V3" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="W3" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="X3" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="n">
         <v>7</v>
       </c>
       <c r="Z3" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AB3" t="n">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
@@ -764,79 +764,79 @@
         <v>28</v>
       </c>
       <c r="D4" t="n">
+        <v>25</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>836</v>
+      </c>
+      <c r="G4" t="n">
+        <v>158</v>
+      </c>
+      <c r="H4" t="n">
+        <v>356</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>118</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="M4" t="n">
+        <v>117</v>
+      </c>
+      <c r="N4" t="n">
+        <v>238</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.501</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>83</v>
+      </c>
+      <c r="R4" t="n">
+        <v>93</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.892</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>74</v>
+      </c>
+      <c r="V4" t="n">
+        <v>91</v>
+      </c>
+      <c r="W4" t="n">
+        <v>125</v>
+      </c>
+      <c r="X4" t="n">
         <v>24</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n">
-        <v>798</v>
-      </c>
-      <c r="G4" t="n">
-        <v>150</v>
-      </c>
-      <c r="H4" t="n">
-        <v>340</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39</v>
-      </c>
-      <c r="K4" t="n">
-        <v>112</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="M4" t="n">
-        <v>111</v>
-      </c>
-      <c r="N4" t="n">
-        <v>228</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.487</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.499</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>82</v>
-      </c>
-      <c r="R4" t="n">
-        <v>92</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.891</v>
-      </c>
-      <c r="T4" t="n">
-        <v>16</v>
-      </c>
-      <c r="U4" t="n">
-        <v>71</v>
-      </c>
-      <c r="V4" t="n">
-        <v>87</v>
-      </c>
-      <c r="W4" t="n">
-        <v>117</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB4" t="n">
-        <v>421</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
@@ -852,64 +852,64 @@
         <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="G5" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H5" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="I5" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="J5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K5" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L5" t="n">
-        <v>0.304</v>
+        <v>0.302</v>
       </c>
       <c r="M5" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N5" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O5" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="P5" t="n">
-        <v>0.526</v>
+        <v>0.527</v>
       </c>
       <c r="Q5" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="R5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S5" t="n">
-        <v>0.854</v>
+        <v>0.86</v>
       </c>
       <c r="T5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U5" t="n">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="V5" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="W5" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="X5" t="n">
         <v>17</v>
@@ -918,13 +918,13 @@
         <v>35</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA5" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB5" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
@@ -940,79 +940,79 @@
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="G6" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I6" t="n">
-        <v>0.504</v>
+        <v>0.496</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L6" t="n">
-        <v>0.427</v>
+        <v>0.424</v>
       </c>
       <c r="M6" t="n">
         <v>27</v>
       </c>
       <c r="N6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>0.659</v>
+        <v>0.643</v>
       </c>
       <c r="P6" t="n">
-        <v>0.646</v>
+        <v>0.638</v>
       </c>
       <c r="Q6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S6" t="n">
-        <v>0.875</v>
+        <v>0.885</v>
       </c>
       <c r="T6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U6" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V6" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="W6" t="n">
         <v>28</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AB6" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -1028,22 +1028,22 @@
         <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="G7" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I7" t="n">
-        <v>0.747</v>
+        <v>0.738</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O7" t="n">
-        <v>0.747</v>
+        <v>0.738</v>
       </c>
       <c r="P7" t="n">
-        <v>0.747</v>
+        <v>0.738</v>
       </c>
       <c r="Q7" t="n">
         <v>20</v>
@@ -1074,31 +1074,31 @@
         <v>0.645</v>
       </c>
       <c r="T7" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U7" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V7" t="n">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="W7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
         <v>33</v>
       </c>
       <c r="Z7" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8">
@@ -1114,79 +1114,79 @@
         <v>28</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="G8" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="I8" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L8" t="n">
-        <v>0.339</v>
+        <v>0.354</v>
       </c>
       <c r="M8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N8" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O8" t="n">
-        <v>0.554</v>
+        <v>0.545</v>
       </c>
       <c r="P8" t="n">
-        <v>0.535</v>
+        <v>0.539</v>
       </c>
       <c r="Q8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R8" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8</v>
+        <v>0.824</v>
       </c>
       <c r="T8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V8" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="W8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="n">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" t="n">
-        <v>0.415</v>
+        <v>0.424</v>
       </c>
       <c r="J10" t="n">
         <v>15</v>
@@ -1317,40 +1317,40 @@
         <v>0.417</v>
       </c>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O10" t="n">
-        <v>0.413</v>
+        <v>0.429</v>
       </c>
       <c r="P10" t="n">
-        <v>0.506</v>
+        <v>0.512</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>0.75</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="T10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U10" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V10" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y10" t="n">
         <v>2</v>
@@ -1359,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -1378,22 +1378,22 @@
         <v>22</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I11" t="n">
-        <v>0.354</v>
+        <v>0.364</v>
       </c>
       <c r="J11" t="n">
         <v>12</v>
@@ -1405,16 +1405,16 @@
         <v>0.267</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>0.55</v>
+        <v>0.571</v>
       </c>
       <c r="P11" t="n">
-        <v>0.446</v>
+        <v>0.455</v>
       </c>
       <c r="Q11" t="n">
         <v>4</v>
@@ -1444,13 +1444,13 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>27</v>
       </c>
       <c r="AB11" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1554,22 +1554,22 @@
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I13" t="n">
-        <v>0.44</v>
+        <v>0.453</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1581,16 +1581,16 @@
         <v>0.333</v>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N13" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="O13" t="n">
-        <v>0.447</v>
+        <v>0.46</v>
       </c>
       <c r="P13" t="n">
-        <v>0.45</v>
+        <v>0.462</v>
       </c>
       <c r="Q13" t="n">
         <v>15</v>
@@ -1605,10 +1605,10 @@
         <v>30</v>
       </c>
       <c r="U13" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V13" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W13" t="n">
         <v>3</v>
@@ -1626,7 +1626,7 @@
         <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -2056,77 +2056,77 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>6150</v>
+        <v>6390</v>
       </c>
       <c r="G19" t="n">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="H19" t="n">
-        <v>2219</v>
+        <v>2305</v>
       </c>
       <c r="I19" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="J19" t="n">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="K19" t="n">
-        <v>905</v>
+        <v>937</v>
       </c>
       <c r="L19" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="M19" t="n">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="N19" t="n">
-        <v>1314</v>
+        <v>1368</v>
       </c>
       <c r="O19" t="n">
-        <v>0.515</v>
+        <v>0.518</v>
       </c>
       <c r="P19" t="n">
-        <v>0.512</v>
+        <v>0.513</v>
       </c>
       <c r="Q19" t="n">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="R19" t="n">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="S19" t="n">
-        <v>0.819</v>
+        <v>0.822</v>
       </c>
       <c r="T19" t="n">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="U19" t="n">
-        <v>894</v>
+        <v>927</v>
       </c>
       <c r="V19" t="n">
-        <v>1149</v>
+        <v>1196</v>
       </c>
       <c r="W19" t="n">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="X19" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="n">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Z19" t="n">
-        <v>339</v>
+        <v>362</v>
       </c>
       <c r="AA19" t="n">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="AB19" t="n">
-        <v>2715</v>
+        <v>2826</v>
       </c>
     </row>
   </sheetData>
